--- a/writings/fig/Hbayes_experiment_result.xlsx
+++ b/writings/fig/Hbayes_experiment_result.xlsx
@@ -8,13 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhexuanxu/Documents/GitHub/hierarchical_bayesian/writings/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2208F7DF-6A67-C34F-BA89-E934CFF2F5C3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{978B34DA-567A-D048-86C1-236099FFEFA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41440" yWindow="5420" windowWidth="28100" windowHeight="17440" xr2:uid="{7D0F4819-6D81-CA46-98EF-D8B1237CC229}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">工作表1!$G$37</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">工作表1!$G$38</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">工作表1!$H$38:$K$38</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">工作表1!$H$39:$K$39</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">工作表1!$H$40:$K$40</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">工作表1!$H$41:$K$41</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">工作表1!$H$42:$K$42</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">工作表1!$H$43:$K$43</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">工作表1!$H$44:$K$44</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">工作表1!$G$39</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">工作表1!$G$40</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">工作表1!$G$41</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">工作表1!$G$42</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">工作表1!$G$43</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">工作表1!$G$44</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">工作表1!$H$36:$K$36</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">工作表1!$H$37:$K$37</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -848,7 +867,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -897,7 +916,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -907,18 +926,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
                   <a:t>F1</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-Hans" sz="1100" b="1"/>
+                  <a:rPr lang="zh-Hans" sz="1400" b="1">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
                   <a:t>Score</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" sz="1100" b="1"/>
+                <a:endParaRPr lang="zh-CN" sz="1400" b="1">
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -935,7 +962,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1688,7 +1715,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1736,7 +1763,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1746,7 +1773,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1200" b="1">
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1754,7 +1781,7 @@
                   </a:rPr>
                   <a:t>Precision</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1776,7 +1803,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1805,7 +1832,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2531,7 +2558,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2578,7 +2605,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2588,7 +2615,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2596,14 +2623,14 @@
                   <a:t>R</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1200" b="1">
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>ecall</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2624,7 +2651,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2653,7 +2680,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3385,7 +3412,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -3433,7 +3460,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3446,7 +3473,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3454,7 +3481,7 @@
                   <a:t>F</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1100" b="1">
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3462,7 +3489,7 @@
                   <a:t>1</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" b="1" baseline="0">
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1400" b="1" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3470,14 +3497,14 @@
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1100" b="1" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Score</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3498,7 +3525,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3530,7 +3557,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4263,7 +4290,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -4312,7 +4339,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4325,7 +4352,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -4333,14 +4360,14 @@
                   <a:t>P</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1200" b="1">
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>recision</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -4361,7 +4388,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4393,7 +4420,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5126,7 +5153,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -5173,7 +5200,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5186,7 +5213,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -5194,14 +5221,14 @@
                   <a:t>R</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1200" b="1">
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>ecall</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -5222,7 +5249,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5254,7 +5281,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5272,6 +5299,869 @@
         <c:crossAx val="1099455439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CoClustering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$H$25:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>pre@5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pre@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pre@25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pre@50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$H$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.0499999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9500000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6EC-5142-B307-136530505999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$H$25:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>pre@5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pre@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pre@25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pre@50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$H$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6EC-5142-B307-136530505999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD++ </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$H$25:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>pre@5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pre@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pre@25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pre@50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$H$28:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.3499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2499999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6EC-5142-B307-136530505999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$H$25:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>pre@5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pre@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pre@25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pre@50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$H$29:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1400000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D6EC-5142-B307-136530505999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$H$25:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>pre@5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pre@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pre@25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pre@50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$H$30:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2700000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.21E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D6EC-5142-B307-136530505999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$H$25:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>pre@5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pre@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pre@25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pre@50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$H$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.6700000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1700000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D6EC-5142-B307-136530505999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LambdaMART</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$H$25:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>pre@5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pre@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pre@25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pre@50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$H$32:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2699999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D6EC-5142-B307-136530505999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HBayes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$H$25:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>pre@5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pre@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pre@25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pre@50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$H$33:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6799999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D6EC-5142-B307-136530505999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1136661759"/>
+        <c:axId val="1136669759"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1136661759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136669759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136669759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.0000000000000016E-2"/>
+          <c:min val="4.0000000000000008E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>recision</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136661759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5591,6 +6481,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8107,6 +9037,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8827,6 +10260,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA993A6-9850-8944-A7CA-86A50655E319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9129,8 +10598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0B6C1F-DD20-7C49-BF06-48E60A9A7B26}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/writings/fig/Hbayes_experiment_result.xlsx
+++ b/writings/fig/Hbayes_experiment_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhexuanxu/Documents/GitHub/hierarchical_bayesian/writings/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{978B34DA-567A-D048-86C1-236099FFEFA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA5825F5-F998-124E-8ACA-DEDE3EB53465}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41440" yWindow="5420" windowWidth="28100" windowHeight="17440" xr2:uid="{7D0F4819-6D81-CA46-98EF-D8B1237CC229}"/>
   </bookViews>
@@ -16,23 +16,23 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">工作表1!$G$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">工作表1!$G$38</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">工作表1!$H$38:$K$38</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">工作表1!$H$39:$K$39</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">工作表1!$H$40:$K$40</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">工作表1!$H$41:$K$41</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">工作表1!$H$42:$K$42</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">工作表1!$H$43:$K$43</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">工作表1!$H$44:$K$44</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">工作表1!$G$39</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">工作表1!$G$40</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">工作表1!$G$41</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">工作表1!$G$42</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">工作表1!$G$43</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">工作表1!$G$44</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">工作表1!$H$36:$K$36</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">工作表1!$H$37:$K$37</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">工作表1!$G$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">工作表1!$G$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">工作表1!$H$3:$K$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">工作表1!$H$4:$K$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">工作表1!$H$5:$K$5</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">工作表1!$H$6:$K$6</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">工作表1!$H$7:$K$7</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">工作表1!$H$8:$K$8</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">工作表1!$H$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">工作表1!$G$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">工作表1!$G$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">工作表1!$G$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">工作表1!$G$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">工作表1!$G$8</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">工作表1!$G$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">工作表1!$H$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">工作表1!$H$11:$K$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,18 +47,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>F1-score@5</t>
-  </si>
-  <si>
-    <t>F1-score@10</t>
-  </si>
-  <si>
-    <t>F1-score@25</t>
-  </si>
-  <si>
-    <t>F1-score@50</t>
   </si>
   <si>
     <t>CoClustering</t>
@@ -138,12 +126,28 @@
   <si>
     <t>recall@50</t>
   </si>
+  <si>
+    <t>F1@5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1@10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1@25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1@50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +183,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,12 +210,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,9 +231,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -283,16 +303,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -354,16 +374,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -425,16 +445,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -496,16 +516,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -567,16 +587,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -638,16 +658,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -711,16 +731,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -784,16 +804,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -891,7 +911,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000001"/>
-          <c:min val="2.0000000000000004E-2"/>
+          <c:min val="4.0000000000000008E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2828,16 +2848,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2899,16 +2919,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2970,16 +2990,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3041,16 +3061,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3112,16 +3132,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3183,16 +3203,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3256,16 +3276,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3329,16 +3349,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>F1-score@5</c:v>
+                  <c:v>F1@5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>F1-score@10</c:v>
+                  <c:v>F1@10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>F1-score@25</c:v>
+                  <c:v>F1@25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>F1-score@50</c:v>
+                  <c:v>F1@50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3435,7 +3455,7 @@
         <c:axId val="1138169583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="7.0000000000000007E-2"/>
+          <c:min val="8.0000000000000016E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10598,15 +10618,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0B6C1F-DD20-7C49-BF06-48E60A9A7B26}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10614,7 +10634,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -10623,7 +10643,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10631,7 +10651,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -10642,38 +10662,38 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>4</v>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>6.4000000000000001E-2</v>
@@ -10689,7 +10709,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>8.3099999999999993E-2</v>
@@ -10706,7 +10726,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>5.6500000000000002E-2</v>
@@ -10722,7 +10742,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
         <v>9.1300000000000006E-2</v>
@@ -10739,7 +10759,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>4.6699999999999998E-2</v>
@@ -10755,7 +10775,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <v>9.0300000000000005E-2</v>
@@ -10772,7 +10792,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>5.9200000000000003E-2</v>
@@ -10788,7 +10808,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1">
         <v>9.1600000000000001E-2</v>
@@ -10805,7 +10825,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>7.4099999999999999E-2</v>
@@ -10821,7 +10841,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1">
         <v>9.3100000000000002E-2</v>
@@ -10838,7 +10858,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>7.1999999999999995E-2</v>
@@ -10854,7 +10874,7 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1">
         <v>8.6300000000000002E-2</v>
@@ -10871,7 +10891,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>6.6699999999999995E-2</v>
@@ -10887,7 +10907,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H10" s="1">
         <v>9.1399999999999995E-2</v>
@@ -10904,7 +10924,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>8.8499999999999995E-2</v>
@@ -10920,7 +10940,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1">
         <v>9.6199999999999994E-2</v>
@@ -10950,7 +10970,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -10958,7 +10978,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -10970,37 +10990,37 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>0.1288</v>
@@ -11016,7 +11036,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>0.24149999999999999</v>
@@ -11033,7 +11053,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>0.1249</v>
@@ -11049,7 +11069,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
         <v>0.25559999999999999</v>
@@ -11066,7 +11086,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>0.1138</v>
@@ -11082,7 +11102,7 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
         <v>0.24929999999999999</v>
@@ -11099,7 +11119,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
         <v>0.12659999999999999</v>
@@ -11115,7 +11135,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1">
         <v>0.25440000000000002</v>
@@ -11132,7 +11152,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
         <v>0.14119999999999999</v>
@@ -11148,7 +11168,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H19" s="1">
         <v>0.25850000000000001</v>
@@ -11165,7 +11185,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <v>0.1363</v>
@@ -11181,7 +11201,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1">
         <v>0.18559999999999999</v>
@@ -11198,7 +11218,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
         <v>0.12870000000000001</v>
@@ -11214,7 +11234,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H21" s="1">
         <v>0.23719999999999999</v>
@@ -11231,7 +11251,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
         <v>0.15570000000000001</v>
@@ -11247,7 +11267,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H22" s="1">
         <v>0.26550000000000001</v>
@@ -11277,7 +11297,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -11285,7 +11305,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -11297,37 +11317,37 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
         <v>4.07E-2</v>
@@ -11343,7 +11363,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
         <v>7.0499999999999993E-2</v>
@@ -11360,7 +11380,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
         <v>3.5299999999999998E-2</v>
@@ -11376,7 +11396,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
         <v>7.5999999999999998E-2</v>
@@ -11393,7 +11413,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1">
         <v>2.86E-2</v>
@@ -11409,7 +11429,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H28" s="1">
         <v>7.3499999999999996E-2</v>
@@ -11426,7 +11446,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1">
         <v>3.7499999999999999E-2</v>
@@ -11442,7 +11462,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H29" s="1">
         <v>7.5499999999999998E-2</v>
@@ -11459,7 +11479,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1">
         <v>4.8500000000000001E-2</v>
@@ -11475,7 +11495,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1">
         <v>7.6999999999999999E-2</v>
@@ -11492,7 +11512,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
         <v>4.8500000000000001E-2</v>
@@ -11508,7 +11528,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H31" s="1">
         <v>7.6700000000000004E-2</v>
@@ -11525,7 +11545,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
         <v>4.3999999999999997E-2</v>
@@ -11541,7 +11561,7 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H32" s="1">
         <v>7.4999999999999997E-2</v>
@@ -11558,7 +11578,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1">
         <v>5.9900000000000002E-2</v>
@@ -11574,7 +11594,7 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H33" s="1">
         <v>7.9000000000000001E-2</v>
@@ -11604,7 +11624,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -11612,7 +11632,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -11624,37 +11644,37 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1">
         <v>0.14940000000000001</v>
@@ -11670,7 +11690,7 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1">
         <v>0.1012</v>
@@ -11687,7 +11707,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B38" s="1">
         <v>0.1409</v>
@@ -11703,7 +11723,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H38" s="1">
         <v>0.1144</v>
@@ -11720,7 +11740,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1">
         <v>0.12670000000000001</v>
@@ -11736,7 +11756,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H39" s="1">
         <v>0.1169</v>
@@ -11753,7 +11773,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1">
         <v>0.14149999999999999</v>
@@ -11769,7 +11789,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H40" s="1">
         <v>0.1164</v>
@@ -11786,7 +11806,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
         <v>0.157</v>
@@ -11802,7 +11822,7 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H41" s="1">
         <v>0.1178</v>
@@ -11819,7 +11839,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1">
         <v>0.1394</v>
@@ -11835,7 +11855,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H42" s="1">
         <v>9.8699999999999996E-2</v>
@@ -11852,7 +11872,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
         <v>0.13750000000000001</v>
@@ -11868,7 +11888,7 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H43" s="1">
         <v>0.1172</v>
@@ -11885,7 +11905,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1">
         <v>0.16919999999999999</v>
@@ -11901,7 +11921,7 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H44" s="1">
         <v>0.12280000000000001</v>
@@ -11918,8 +11938,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{3B2412BD-4045-2845-B996-0BD6E32686D5}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{87607E90-6F30-BB41-B95A-6D4C4F844ACC}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{D66B4A7F-CD0B-C840-B7E3-96F00B05449F}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{35E84CA2-F079-F348-AA62-36B66C8905C8}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{40C93DE4-7004-CC46-8623-71957D3E4F2F}"/>
+    <hyperlink ref="I3" r:id="rId6" xr:uid="{EE82F549-5F27-AB40-8472-DF76999D9C5C}"/>
+    <hyperlink ref="J3" r:id="rId7" xr:uid="{494C34BB-0772-BA48-8565-295865BB01CD}"/>
+    <hyperlink ref="K3" r:id="rId8" xr:uid="{6FCA0C18-09BE-F743-AA14-A9D8088DA9CA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>